--- a/plan/life_cost/2016/12.xlsx
+++ b/plan/life_cost/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>时间</t>
   </si>
@@ -30,6 +30,10 @@
     <t>买菜(112)+生日蛋糕(48)+
 骑车(1)</t>
   </si>
+  <si>
+    <t>水果(19.3)+粘鼠板(5)+彩票
+(12)</t>
+  </si>
 </sst>
 </file>
 
@@ -37,11 +41,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,86 +62,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,6 +161,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -156,46 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,25 +207,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,139 +351,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +421,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,43 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,49 +503,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,103 +557,103 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1002,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
@@ -1033,6 +1033,17 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>36.3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/2016/12.xlsx
+++ b/plan/life_cost/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>时间</t>
   </si>
@@ -34,14 +34,17 @@
     <t>水果(19.3)+粘鼠板(5)+彩票
 (12)</t>
   </si>
+  <si>
+    <t>水果(2.4)+鸡蛋(2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -55,15 +58,70 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -71,15 +129,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,106 +164,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,13 +210,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,13 +282,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,145 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,11 +404,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,47 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,6 +466,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -506,154 +509,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1002,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C5:C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
@@ -1042,8 +1042,19 @@
       <c r="B3">
         <v>36.3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/2016/12.xlsx
+++ b/plan/life_cost/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>时间</t>
   </si>
@@ -37,6 +37,9 @@
   <si>
     <t>水果(2.4)+鸡蛋(2)</t>
   </si>
+  <si>
+    <t>彩票（16）+晚饭（25）</t>
+  </si>
 </sst>
 </file>
 
@@ -59,15 +62,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,7 +70,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,32 +114,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +143,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -136,66 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,19 +225,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,151 +363,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,21 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,6 +427,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,30 +496,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -509,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,13 +1005,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
@@ -1055,6 +1058,17 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/2016/12.xlsx
+++ b/plan/life_cost/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>时间</t>
   </si>
@@ -40,16 +40,19 @@
   <si>
     <t>彩票（16）+晚饭（25）</t>
   </si>
+  <si>
+    <t>蛋糕（15+4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,17 +65,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,8 +87,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,105 +179,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,61 +228,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,109 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +407,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,7 +444,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,7 +453,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,36 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,10 +515,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,133 +527,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
@@ -1069,6 +1072,17 @@
       </c>
       <c r="C5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/2016/12.xlsx
+++ b/plan/life_cost/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>时间</t>
   </si>
@@ -43,16 +43,19 @@
   <si>
     <t>蛋糕（15+4)</t>
   </si>
+  <si>
+    <t>粘鼠板（10）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,6 +67,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -73,7 +114,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,37 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,83 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +219,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,43 +345,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,121 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,17 +413,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,11 +437,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,6 +457,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,17 +491,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
@@ -1083,6 +1086,17 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
